--- a/xlsx/黑格尔_intext.xlsx
+++ b/xlsx/黑格尔_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
   <si>
     <t>黑格尔</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_黑格尔</t>
+    <t>神圣罗马帝国</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_黑格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%85%BE%E5%A0%A1%E5%85%AC%E5%9B%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>普魯士王國</t>
+    <t>普鲁士王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/19%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>19世紀哲學</t>
+    <t>19世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%82%E5%94%AF%E5%BF%83%E4%B8%BB%E4%B9%89</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%91%9F%E5%80%AB</t>
   </si>
   <si>
-    <t>安瑟倫</t>
+    <t>安瑟伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%9B%E5%8D%A1%E5%B0%94</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%BA%A5</t>
   </si>
   <si>
-    <t>伯麥</t>
+    <t>伯麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%B7%B4%E7%89%B9</t>
   </si>
   <si>
-    <t>卡爾·巴特</t>
+    <t>卡尔·巴特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%B4%AA%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏林洪堡大學</t>
+    <t>柏林洪堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E4%B9%89</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E8%8D%B7%E7%88%BE%E5%BE%B7%E6%9E%97</t>
   </si>
   <si>
-    <t>弗里德里希·荷爾德林</t>
+    <t>弗里德里希·荷尔德林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%9E%9C%C2%B7%E6%A0%BC%E8%80%81%E7%A7%80%E6%96%AF</t>
@@ -359,37 +359,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E7%89%B9%E4%BD%9B%E8%90%8A%E5%BE%B7%C2%B7%E8%90%8A%E5%B8%83%E5%B0%BC%E8%8C%B2</t>
   </si>
   <si>
-    <t>哥特佛萊德·萊布尼茲</t>
+    <t>哥特佛莱德·莱布尼兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%AF%E6%B4%9B%C2%B7%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>尼可洛·馬基維利</t>
+    <t>尼可洛·马基维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E9%9B%85%E5%85%8B%C2%B7%E7%9B%A7%E6%A2%AD</t>
   </si>
   <si>
-    <t>讓-雅克·盧梭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E9%98%BF%E4%BB%80%E5%88%A9-%E6%9F%AF%E6%9F%8F%EF%BC%8C%E7%AC%AC%E4%B8%89%E4%BB%A3%E6%B2%99%E5%A4%AB%E8%8C%A8%E4%BC%AF%E9%87%8C%E4%BC%AF%E7%88%B5</t>
   </si>
   <si>
-    <t>安東尼·阿什利-柯柏，第三代沙夫茨伯里伯爵</t>
+    <t>安东尼·阿什利-柯柏，第三代沙夫茨伯里伯爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%AD%AF%E8%B5%AB%C2%B7%E6%96%AF%E8%B3%93%E8%AB%BE%E8%8E%8E</t>
   </si>
   <si>
-    <t>巴魯赫·斯賓諾莎</t>
+    <t>巴鲁赫·斯宾诺莎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7</t>
@@ -401,19 +398,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8F%E7%88%BE%E6%B3%B0</t>
   </si>
   <si>
-    <t>伏爾泰</t>
+    <t>伏尔泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F</t>
   </si>
   <si>
-    <t>法蘭克福</t>
+    <t>法兰克福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E6%8B%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶拿大學</t>
+    <t>耶拿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%AD%E5%8B%92</t>
@@ -455,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏林大學</t>
+    <t>柏林大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E4%BA%82</t>
   </si>
   <si>
-    <t>霍亂</t>
+    <t>霍乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%93%B2%E5%AD%A6%E5%8E%9F%E7%90%86</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>恐怖統治</t>
+    <t>恐怖统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%80%AB</t>
   </si>
   <si>
-    <t>拿破倫</t>
+    <t>拿破伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E9%BB%91%E6%A0%BC%E5%B0%94%E6%B4%BE</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E5%AE%89%E5%BE%B7%E5%88%97%E6%96%AF%C2%B7%E8%B2%BB%E7%88%BE%E5%B7%B4%E5%93%88</t>
   </si>
   <si>
-    <t>路德維希·安德列斯·費爾巴哈</t>
+    <t>路德维希·安德列斯·费尔巴哈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B7%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>利己主義</t>
+    <t>利己主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%A6</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E5%86%AF%C2%B7%E6%B4%AA%E5%A0%A1</t>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E7%9B%A7%E5%8D%A1%E5%A5%87</t>
   </si>
   <si>
-    <t>喬治·盧卡奇</t>
+    <t>乔治·卢卡奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -665,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E6%A2%85%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·梅克爾</t>
+    <t>安格拉·梅克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%8A%A0%E8%92%99%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>佩加蒙博物館</t>
+    <t>佩加蒙博物馆</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Friedhof_der_Dorotheenst%C3%A4dtischen_und_Friedrichswerderschen_Gemeinden</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%8D%80</t>
   </si>
   <si>
-    <t>中央區</t>
+    <t>中央区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%BB%E8%BE%91</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E4%B8%96</t>
   </si>
   <si>
-    <t>來世</t>
+    <t>来世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E8%A5%BF%E5%BC%97%E7%BD%97%E5%9B%B0%E5%A2%83</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9D%88</t>
   </si>
   <si>
-    <t>聖靈</t>
+    <t>圣灵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Misotheism</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E8%87%AA%E7%84%B6%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>泛自然神論</t>
+    <t>泛自然神论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Personal_god</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E5%8D%A1%E7%9A%84%E8%B3%AD%E6%B3%A8</t>
   </si>
   <si>
-    <t>帕斯卡的賭注</t>
+    <t>帕斯卡的赌注</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ultimate_Boeing_747_gambit</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%83%BD%E6%82%96%E8%AB%96</t>
   </si>
   <si>
-    <t>全能悖論</t>
+    <t>全能悖论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Omphalos_hypothesis</t>
@@ -983,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%A0%E7%9A%84%E8%8C%B6%E5%A3%BA</t>
   </si>
   <si>
-    <t>羅素的茶壺</t>
+    <t>罗素的茶壶</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fate_of_the_unlearned</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>神學</t>
+    <t>神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E5%AE%87%E5%AE%99%E8%AE%BA</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%88%E8%AB%96</t>
   </si>
   <si>
-    <t>泛靈論</t>
+    <t>泛灵论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%AE%97%E6%95%99</t>
@@ -1025,13 +1022,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%80%A0%E8%AB%96</t>
   </si>
   <si>
-    <t>創造論</t>
+    <t>创造论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95_(%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%B8)</t>
   </si>
   <si>
-    <t>法 (印度哲學)</t>
+    <t>法 (印度哲学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A5%9E%E8%AE%BA</t>
@@ -1055,13 +1052,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E7%BE%A9%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>存在主義神學</t>
+    <t>存在主义神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦女神學</t>
+    <t>妇女神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%96%AF%E5%BA%95%E4%B8%BB%E4%B9%89</t>
@@ -1151,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%87%8D%E5%AE%97%E6%95%99%E8%BA%AB%E4%BB%BD%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>多重宗教身份認同</t>
+    <t>多重宗教身份认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%8B%89%E5%85%8B%E5%88%A9%E7%89%B9</t>
@@ -1199,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E7%9A%AE%E7%A7%91%C2%B7%E5%BE%B7%E6%8B%89%C2%B7%E7%B1%B3%E8%98%AD%E5%A4%9A%E6%8B%89</t>
   </si>
   <si>
-    <t>若望·皮科·德拉·米蘭多拉</t>
+    <t>若望·皮科·德拉·米兰多拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E6%96%AF%E8%B0%9F</t>
@@ -1229,19 +1226,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%88%88%E7%89%B9%E5%BC%97%E9%87%8C%E5%BE%B7%C2%B7%E9%A6%AE%C2%B7%E8%B5%AB%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>約翰·戈特弗里德·馮·赫爾德</t>
+    <t>约翰·戈特弗里德·冯·赫尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E6%96%BD%E8%90%8A%E7%88%BE%E9%A6%AC%E8%B5%AB</t>
   </si>
   <si>
-    <t>弗里德里希·施萊爾馬赫</t>
+    <t>弗里德里希·施莱尔马赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%B6%AD%E8%B5%AB%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>威廉·維赫維爾</t>
+    <t>威廉·维赫维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E4%BC%A6%C2%B7%E5%A5%A5%E8%B4%9D%C2%B7%E5%85%8B%E5%B0%94%E5%87%AF%E9%83%AD%E5%B0%94</t>
@@ -1265,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%87%91%E9%A0%93%C2%B7%E5%85%8B%E5%88%A9%E7%A6%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>威廉·金頓·克利福德</t>
+    <t>威廉·金顿·克利福德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%B0%BC%E9%87%87</t>
@@ -1313,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E7%94%B0%E7%AB%8B%E5%85%8B</t>
   </si>
   <si>
-    <t>保羅·田立克</t>
+    <t>保罗·田立克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B1%B3%E5%B0%94%C2%B7%E5%B8%83%E9%B2%81%E5%86%85%E5%B0%94</t>
@@ -1337,13 +1334,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%AF%9F%C2%B7%E6%96%AF%E6%BA%AB%E4%BC%AF%E6%81%A9</t>
   </si>
   <si>
-    <t>理察·斯溫伯恩</t>
+    <t>理察·斯温伯恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%B8%B9%E5%B0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼爾·丹尼特</t>
+    <t>丹尼尔·丹尼特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%8F%B2</t>
@@ -1355,9 +1352,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%A6</t>
   </si>
   <si>
-    <t>神学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%B8%8E%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
@@ -1409,9 +1403,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>约翰·洛克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E9%87%8C%E5%BE%B7</t>
   </si>
   <si>
@@ -1433,9 +1424,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%B2%81%E8%B5%AB%C2%B7%E6%96%AF%E5%AE%BE%E8%AF%BA%E8%8E%8E</t>
   </si>
   <si>
-    <t>巴鲁赫·斯宾诺莎</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E8%B4%9D%E5%85%8B%E8%8E%B1</t>
   </si>
   <si>
@@ -1463,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%AB%BE%E6%80%9D%C2%B7%E6%87%B7%E7%89%B9%E9%BB%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾弗雷德·諾思·懷特黑德</t>
+    <t>阿尔弗雷德·诺思·怀特黑德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
@@ -1577,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>形而上學家列表</t>
+    <t>形而上学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8A%A8%E7%90%86%E8%AE%BA</t>
@@ -1595,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Enactivism</t>
@@ -1637,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%9A%84%E6%84%8F%E7%BE%A9</t>
   </si>
   <si>
-    <t>生命的意義</t>
+    <t>生命的意义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%97%A0%E4%B8%BB%E4%B9%89</t>
@@ -1655,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>實在論</t>
+    <t>实在论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E4%B8%BB%E4%B9%89</t>
@@ -1685,19 +1673,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>科學實在論</t>
+    <t>科学实在论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E6%88%91%E8%AB%96</t>
   </si>
   <si>
-    <t>唯我論</t>
+    <t>唯我论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>主觀主義</t>
+    <t>主观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Substance_theory</t>
@@ -1769,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>實體</t>
+    <t>实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%B4%A8</t>
@@ -1787,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>經驗</t>
+    <t>经验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hypostatic_abstraction</t>
@@ -1811,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%B8%80%E6%80%A7%E8%88%87%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>同一性與變化</t>
+    <t>同一性与变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF</t>
@@ -1889,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E9%AB%94</t>
   </si>
   <si>
-    <t>客體</t>
+    <t>客体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E5%BC%8F</t>
@@ -1937,7 +1925,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subject_(philosophy)</t>
@@ -1985,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E8%A7%80%E6%B8%AC%E6%80%A7</t>
   </si>
   <si>
-    <t>不可觀測性</t>
+    <t>不可观测性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC_(%E4%BC%A6%E7%90%86%E5%AD%A6)</t>
@@ -1997,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
   </si>
   <si>
-    <t>價值論</t>
+    <t>价值论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E5%AD%A6</t>
@@ -2009,13 +1997,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%AD%B8</t>
   </si>
   <si>
-    <t>知識學</t>
+    <t>知识学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%A8%AD</t>
   </si>
   <si>
-    <t>後設</t>
+    <t>后设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E4%BD%93%E8%AE%BA_(%E5%93%B2%E5%AD%A6)</t>
@@ -2069,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2087,7 +2075,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2105,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2129,7 +2117,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MusicBrainz</t>
@@ -2141,19 +2129,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4309,7 +4297,7 @@
         <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4335,10 +4323,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4364,10 +4352,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4393,10 +4381,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4422,10 +4410,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4451,10 +4439,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4480,10 +4468,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -4509,10 +4497,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4538,10 +4526,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4567,10 +4555,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -4596,10 +4584,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4625,10 +4613,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4654,10 +4642,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4683,10 +4671,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>6</v>
@@ -4712,10 +4700,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4741,10 +4729,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4770,10 +4758,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>54</v>
@@ -4799,10 +4787,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>20</v>
@@ -4828,10 +4816,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4857,10 +4845,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>22</v>
@@ -4886,10 +4874,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4915,10 +4903,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4944,10 +4932,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4973,10 +4961,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5002,10 +4990,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>11</v>
@@ -5031,10 +5019,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5060,10 +5048,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>5</v>
@@ -5089,10 +5077,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -5118,10 +5106,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5147,10 +5135,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5176,10 +5164,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5205,10 +5193,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5234,10 +5222,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -5263,10 +5251,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -5292,10 +5280,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>8</v>
@@ -5321,10 +5309,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5350,10 +5338,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5379,10 +5367,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5408,10 +5396,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5437,10 +5425,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5466,10 +5454,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5495,10 +5483,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5524,10 +5512,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5553,10 +5541,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5582,10 +5570,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5611,10 +5599,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5640,10 +5628,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5669,10 +5657,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5698,10 +5686,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5727,10 +5715,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5756,10 +5744,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5785,10 +5773,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5814,10 +5802,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5843,10 +5831,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5872,10 +5860,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5901,10 +5889,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5930,10 +5918,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5959,10 +5947,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5988,10 +5976,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6017,10 +6005,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6046,10 +6034,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6075,10 +6063,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6104,10 +6092,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>84</v>
@@ -6133,10 +6121,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -6162,10 +6150,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6191,10 +6179,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6220,10 +6208,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>4</v>
@@ -6249,10 +6237,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6278,10 +6266,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6307,10 +6295,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6336,10 +6324,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6365,10 +6353,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -6394,10 +6382,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>19</v>
@@ -6423,10 +6411,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6452,10 +6440,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6481,10 +6469,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6510,10 +6498,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6539,10 +6527,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6568,10 +6556,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6597,10 +6585,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6626,10 +6614,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>178</v>
+      </c>
+      <c r="F141" t="s">
         <v>179</v>
-      </c>
-      <c r="F141" t="s">
-        <v>180</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6655,10 +6643,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6684,10 +6672,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6713,10 +6701,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6742,10 +6730,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6771,10 +6759,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6800,10 +6788,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6829,10 +6817,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6858,10 +6846,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6887,10 +6875,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6916,10 +6904,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6945,10 +6933,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6974,10 +6962,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7003,10 +6991,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>256</v>
+      </c>
+      <c r="F154" t="s">
         <v>257</v>
-      </c>
-      <c r="F154" t="s">
-        <v>258</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7032,10 +7020,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7061,10 +7049,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7090,10 +7078,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7119,10 +7107,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7148,10 +7136,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7177,10 +7165,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7206,10 +7194,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7235,10 +7223,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7264,10 +7252,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7293,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7322,10 +7310,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7351,10 +7339,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7380,10 +7368,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7409,10 +7397,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7438,10 +7426,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7467,10 +7455,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7496,10 +7484,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7525,10 +7513,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7554,10 +7542,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7583,10 +7571,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7612,10 +7600,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7641,10 +7629,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7670,10 +7658,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7699,10 +7687,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7728,10 +7716,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7757,10 +7745,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7786,10 +7774,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7815,10 +7803,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7844,10 +7832,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" t="s">
         <v>359</v>
-      </c>
-      <c r="F183" t="s">
-        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7873,10 +7861,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>360</v>
+      </c>
+      <c r="F184" t="s">
         <v>361</v>
-      </c>
-      <c r="F184" t="s">
-        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>10</v>
@@ -7902,10 +7890,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>362</v>
+      </c>
+      <c r="F185" t="s">
         <v>363</v>
-      </c>
-      <c r="F185" t="s">
-        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7931,10 +7919,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" t="s">
         <v>365</v>
-      </c>
-      <c r="F186" t="s">
-        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7960,10 +7948,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>282</v>
+      </c>
+      <c r="F187" t="s">
         <v>283</v>
-      </c>
-      <c r="F187" t="s">
-        <v>284</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7989,10 +7977,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8018,10 +8006,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8047,10 +8035,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8076,10 +8064,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8105,10 +8093,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8134,10 +8122,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8163,10 +8151,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8192,10 +8180,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8221,10 +8209,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8250,10 +8238,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8279,10 +8267,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8308,10 +8296,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8337,10 +8325,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8366,10 +8354,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8395,10 +8383,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8424,10 +8412,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8453,10 +8441,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8511,10 +8499,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>400</v>
+      </c>
+      <c r="F206" t="s">
         <v>401</v>
-      </c>
-      <c r="F206" t="s">
-        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8540,10 +8528,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>402</v>
+      </c>
+      <c r="F207" t="s">
         <v>403</v>
-      </c>
-      <c r="F207" t="s">
-        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8569,10 +8557,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>404</v>
+      </c>
+      <c r="F208" t="s">
         <v>405</v>
-      </c>
-      <c r="F208" t="s">
-        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8598,10 +8586,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>406</v>
+      </c>
+      <c r="F209" t="s">
         <v>407</v>
-      </c>
-      <c r="F209" t="s">
-        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8627,10 +8615,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>408</v>
+      </c>
+      <c r="F210" t="s">
         <v>409</v>
-      </c>
-      <c r="F210" t="s">
-        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8656,10 +8644,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>410</v>
+      </c>
+      <c r="F211" t="s">
         <v>411</v>
-      </c>
-      <c r="F211" t="s">
-        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8685,10 +8673,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>412</v>
+      </c>
+      <c r="F212" t="s">
         <v>413</v>
-      </c>
-      <c r="F212" t="s">
-        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8714,10 +8702,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>414</v>
+      </c>
+      <c r="F213" t="s">
         <v>415</v>
-      </c>
-      <c r="F213" t="s">
-        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8743,10 +8731,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214" t="s">
         <v>417</v>
-      </c>
-      <c r="F214" t="s">
-        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8772,10 +8760,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>418</v>
+      </c>
+      <c r="F215" t="s">
         <v>419</v>
-      </c>
-      <c r="F215" t="s">
-        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8801,10 +8789,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>420</v>
+      </c>
+      <c r="F216" t="s">
         <v>421</v>
-      </c>
-      <c r="F216" t="s">
-        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8830,10 +8818,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>422</v>
+      </c>
+      <c r="F217" t="s">
         <v>423</v>
-      </c>
-      <c r="F217" t="s">
-        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8859,10 +8847,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>424</v>
+      </c>
+      <c r="F218" t="s">
         <v>425</v>
-      </c>
-      <c r="F218" t="s">
-        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8888,10 +8876,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219" t="s">
         <v>427</v>
-      </c>
-      <c r="F219" t="s">
-        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -8917,10 +8905,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>428</v>
+      </c>
+      <c r="F220" t="s">
         <v>429</v>
-      </c>
-      <c r="F220" t="s">
-        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8946,10 +8934,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>430</v>
+      </c>
+      <c r="F221" t="s">
         <v>431</v>
-      </c>
-      <c r="F221" t="s">
-        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9004,10 +8992,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>432</v>
+      </c>
+      <c r="F223" t="s">
         <v>433</v>
-      </c>
-      <c r="F223" t="s">
-        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9033,10 +9021,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>434</v>
+      </c>
+      <c r="F224" t="s">
         <v>435</v>
-      </c>
-      <c r="F224" t="s">
-        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9062,10 +9050,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>436</v>
+      </c>
+      <c r="F225" t="s">
         <v>437</v>
-      </c>
-      <c r="F225" t="s">
-        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9091,10 +9079,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>438</v>
+      </c>
+      <c r="F226" t="s">
         <v>439</v>
-      </c>
-      <c r="F226" t="s">
-        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9120,10 +9108,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>440</v>
+      </c>
+      <c r="F227" t="s">
         <v>441</v>
-      </c>
-      <c r="F227" t="s">
-        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9178,10 +9166,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>442</v>
+      </c>
+      <c r="F229" t="s">
         <v>443</v>
-      </c>
-      <c r="F229" t="s">
-        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9207,10 +9195,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>325</v>
       </c>
       <c r="G230" t="n">
         <v>5</v>
@@ -9236,10 +9224,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9265,10 +9253,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9294,10 +9282,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9323,10 +9311,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9352,10 +9340,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9381,10 +9369,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9410,10 +9398,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9439,10 +9427,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9468,10 +9456,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>396</v>
+      </c>
+      <c r="F239" t="s">
         <v>397</v>
-      </c>
-      <c r="F239" t="s">
-        <v>398</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9497,10 +9485,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>116</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9526,10 +9514,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9555,10 +9543,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9584,10 +9572,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9613,10 +9601,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>123</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9671,10 +9659,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9700,10 +9688,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>416</v>
+      </c>
+      <c r="F247" t="s">
         <v>417</v>
-      </c>
-      <c r="F247" t="s">
-        <v>418</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9729,10 +9717,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9758,10 +9746,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9787,10 +9775,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9816,10 +9804,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9845,10 +9833,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9874,10 +9862,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>426</v>
+      </c>
+      <c r="F253" t="s">
         <v>427</v>
-      </c>
-      <c r="F253" t="s">
-        <v>428</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9903,10 +9891,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9932,10 +9920,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9961,10 +9949,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9990,10 +9978,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10019,10 +10007,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10048,10 +10036,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10077,10 +10065,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10106,10 +10094,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10135,10 +10123,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10164,10 +10152,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10193,10 +10181,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10222,10 +10210,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10251,10 +10239,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10280,10 +10268,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10309,10 +10297,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10338,10 +10326,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10367,10 +10355,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10396,10 +10384,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>4</v>
@@ -10425,10 +10413,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10454,10 +10442,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10483,10 +10471,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10512,10 +10500,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10541,10 +10529,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10570,10 +10558,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10599,10 +10587,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10628,10 +10616,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10657,10 +10645,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10686,10 +10674,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10715,10 +10703,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10744,10 +10732,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10773,10 +10761,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -10802,10 +10790,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10831,10 +10819,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10860,10 +10848,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10889,10 +10877,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10918,10 +10906,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10947,10 +10935,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10976,10 +10964,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11005,10 +10993,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11034,10 +11022,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11063,10 +11051,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11092,10 +11080,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11121,10 +11109,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11150,10 +11138,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11179,10 +11167,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11208,10 +11196,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11237,10 +11225,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11266,10 +11254,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G301" t="n">
         <v>15</v>
@@ -11295,10 +11283,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11324,10 +11312,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G303" t="n">
         <v>4</v>
@@ -11353,10 +11341,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11382,10 +11370,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G305" t="n">
         <v>14</v>
@@ -11411,10 +11399,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G306" t="n">
         <v>4</v>
@@ -11440,10 +11428,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11469,10 +11457,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11498,10 +11486,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11527,10 +11515,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11556,10 +11544,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>6</v>
@@ -11585,10 +11573,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11614,10 +11602,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11643,10 +11631,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11672,10 +11660,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11701,10 +11689,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11730,10 +11718,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11759,10 +11747,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11788,10 +11776,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11817,10 +11805,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G320" t="n">
         <v>7</v>
@@ -11846,10 +11834,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11875,10 +11863,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11904,10 +11892,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11933,10 +11921,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -11962,10 +11950,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11991,10 +11979,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12020,10 +12008,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G327" t="n">
         <v>3</v>
@@ -12049,10 +12037,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12078,10 +12066,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12107,10 +12095,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12136,10 +12124,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12165,10 +12153,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12194,10 +12182,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12223,10 +12211,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F334" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G334" t="n">
         <v>11</v>
@@ -12252,10 +12240,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F335" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12281,10 +12269,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F336" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G336" t="n">
         <v>6</v>
@@ -12310,10 +12298,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F337" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12339,10 +12327,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F338" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12368,10 +12356,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F339" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12397,10 +12385,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F340" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12426,10 +12414,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F341" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12455,10 +12443,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12484,10 +12472,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F343" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12513,10 +12501,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F344" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12542,10 +12530,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F345" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12571,10 +12559,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F346" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G346" t="n">
         <v>3</v>
@@ -12600,10 +12588,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12629,10 +12617,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F348" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12658,10 +12646,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F349" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12687,10 +12675,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F350" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12716,10 +12704,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F351" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -12745,10 +12733,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F352" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12774,10 +12762,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G353" t="n">
         <v>5</v>
@@ -12803,10 +12791,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F354" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12832,10 +12820,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F355" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12861,10 +12849,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12890,10 +12878,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12919,10 +12907,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12948,10 +12936,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12977,10 +12965,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13006,10 +12994,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13035,10 +13023,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13064,10 +13052,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13093,10 +13081,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13122,10 +13110,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13151,10 +13139,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13180,10 +13168,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F367" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13209,10 +13197,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F368" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13238,10 +13226,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F369" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13267,10 +13255,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F370" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13296,10 +13284,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F371" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13325,10 +13313,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F372" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13354,10 +13342,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F373" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G373" t="n">
         <v>8</v>
@@ -13383,10 +13371,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F374" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13412,10 +13400,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F375" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
